--- a/Input/temp.xlsx
+++ b/Input/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logycent-my.sharepoint.com/personal/manjunath_nr_logycent_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3D5897-94B8-4519-93AA-B22604ACA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C036D1C-E9ED-4385-A131-7FDA2BA9712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BD08653-844A-4201-AC7B-2867D37CE5F2}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{8005C741-86F9-4513-ACA6-60AE119A98B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35F51469-DFD5-425B-83FC-F0A86060A9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2644,14 +2644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350041F2-3BBC-46EE-BAAA-F26BD7866172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E584840B-EFD7-484E-B84A-6A2CDD31AC54}">
   <dimension ref="A4:AAT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="722" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:722" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/Input/temp.xlsx
+++ b/Input/temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logycent-my.sharepoint.com/personal/manjunath_nr_logycent_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipefitterLegacy\JSON\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C036D1C-E9ED-4385-A131-7FDA2BA9712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BD08653-844A-4201-AC7B-2867D37CE5F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B123810-370D-47F0-B36B-F5F263725736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35F51469-DFD5-425B-83FC-F0A86060A9C9}"/>
   </bookViews>
@@ -2204,13 +2204,13 @@
     <t>OD-360</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>F954/1 - 37/4/6</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>F954/1 - 40/5/1</t>
@@ -2226,7 +2226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,6 +2241,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2648,7 +2654,7 @@
   <dimension ref="A4:AAT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4828,10 +4834,10 @@
     </row>
     <row r="5" spans="1:722" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
         <v>722</v>
-      </c>
-      <c r="B5" t="s">
-        <v>723</v>
       </c>
       <c r="C5" s="3">
         <v>122.09736862182618</v>
@@ -6995,11 +7001,11 @@
       </c>
     </row>
     <row r="6" spans="1:722" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>722</v>
+      <c r="A6" t="s">
+        <v>724</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6" s="5">
         <v>122.05072021484375</v>
@@ -9163,11 +9169,11 @@
       </c>
     </row>
     <row r="7" spans="1:722" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>725</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C7" s="5">
         <v>122.030322265625</v>
@@ -11331,11 +11337,11 @@
       </c>
     </row>
     <row r="8" spans="1:722" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>725</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C8" s="5">
         <v>122.13033599853516</v>
@@ -13499,11 +13505,11 @@
       </c>
     </row>
     <row r="9" spans="1:722" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>726</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C9" s="5">
         <v>122.20718688964844</v>
@@ -15667,11 +15673,11 @@
       </c>
     </row>
     <row r="10" spans="1:722" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>726</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C10" s="5">
         <v>122.16497497558595</v>
@@ -17835,6 +17841,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>